--- a/front/phase1_test.xlsx
+++ b/front/phase1_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZBook\OneDrive\Documents\GitHub\jubo_hr\front\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058E9A8C-F35E-40A7-83DA-05EC45194C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0031A40-17E2-4EEF-B466-7275F1653CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>EEE</t>
+  </si>
+  <si>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
@@ -585,7 +588,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -665,7 +668,9 @@
       <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
@@ -723,7 +728,9 @@
       <c r="C3" s="7">
         <v>38800.613020833334</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E3" s="8" t="s">
         <v>35</v>
       </c>
@@ -781,6 +788,9 @@
       <c r="C4" s="7">
         <v>38800.613020833334</v>
       </c>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
@@ -837,6 +847,9 @@
       <c r="C5" s="7">
         <v>38800.613020833334</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E5" t="s">
         <v>44</v>
       </c>
@@ -892,6 +905,9 @@
       </c>
       <c r="C6">
         <v>38800.613020833334</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>45</v>
